--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H2">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I2">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J2">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>293.1644937955305</v>
+        <v>601.645054327905</v>
       </c>
       <c r="R2">
-        <v>1172.657975182122</v>
+        <v>2406.58021731162</v>
       </c>
       <c r="S2">
-        <v>0.1209640131746895</v>
+        <v>0.08406101353574073</v>
       </c>
       <c r="T2">
-        <v>0.07199037588323612</v>
+        <v>0.04712063522930013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H3">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I3">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J3">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>70.09391733890699</v>
+        <v>92.40475674828998</v>
       </c>
       <c r="R3">
-        <v>420.563504033442</v>
+        <v>554.4285404897399</v>
       </c>
       <c r="S3">
-        <v>0.02892178868823988</v>
+        <v>0.01291066460516663</v>
       </c>
       <c r="T3">
-        <v>0.0258187172891876</v>
+        <v>0.01085566349677487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H4">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I4">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J4">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>13.218274170684</v>
+        <v>39.00260373753333</v>
       </c>
       <c r="R4">
-        <v>79.309645024104</v>
+        <v>234.0156224252</v>
       </c>
       <c r="S4">
-        <v>0.005454055742659156</v>
+        <v>0.005449389764156591</v>
       </c>
       <c r="T4">
-        <v>0.004868880165646376</v>
+        <v>0.00458200591151441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H5">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I5">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J5">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>32.30867860225501</v>
+        <v>57.049575753205</v>
       </c>
       <c r="R5">
-        <v>129.23471440902</v>
+        <v>228.19830301282</v>
       </c>
       <c r="S5">
-        <v>0.01333103942261771</v>
+        <v>0.007970887693834076</v>
       </c>
       <c r="T5">
-        <v>0.007933818610684925</v>
+        <v>0.004468103293986332</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H6">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I6">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J6">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>211.3516574211461</v>
+        <v>1052.239437630243</v>
       </c>
       <c r="R6">
-        <v>1268.109944526876</v>
+        <v>6313.43662578146</v>
       </c>
       <c r="S6">
-        <v>0.08720682488451384</v>
+        <v>0.1470174365652948</v>
       </c>
       <c r="T6">
-        <v>0.0778502457663167</v>
+        <v>0.1236165502179187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H7">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I7">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J7">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>18.85533331902</v>
+        <v>11.22699340791</v>
       </c>
       <c r="R7">
-        <v>113.13199991412</v>
+        <v>67.36196044746001</v>
       </c>
       <c r="S7">
-        <v>0.007779989856499705</v>
+        <v>0.001568619966272732</v>
       </c>
       <c r="T7">
-        <v>0.006945260570947681</v>
+        <v>0.00131894143554505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J8">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>22.97622621631134</v>
+        <v>35.76791982105401</v>
       </c>
       <c r="R8">
-        <v>137.857357297868</v>
+        <v>214.607518926324</v>
       </c>
       <c r="S8">
-        <v>0.009480331314176709</v>
+        <v>0.004997444208332548</v>
       </c>
       <c r="T8">
-        <v>0.008463169295891047</v>
+        <v>0.004201996901681923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J9">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>5.493481425105333</v>
@@ -1013,10 +1013,10 @@
         <v>49.441332825948</v>
       </c>
       <c r="S9">
-        <v>0.002266691818228243</v>
+        <v>0.0007675416146318707</v>
       </c>
       <c r="T9">
-        <v>0.003035241485272286</v>
+        <v>0.0009680570764204251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J10">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>1.035957846064</v>
+        <v>2.318712658337778</v>
       </c>
       <c r="R10">
-        <v>9.323620614576001</v>
+        <v>20.86841392504</v>
       </c>
       <c r="S10">
-        <v>0.0004274515543042177</v>
+        <v>0.0003239673205254919</v>
       </c>
       <c r="T10">
-        <v>0.0005723842474458687</v>
+        <v>0.0004086017633246957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J11">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>2.532133065313334</v>
+        <v>3.391608784427334</v>
       </c>
       <c r="R11">
-        <v>15.19279839188</v>
+        <v>20.349652706564</v>
       </c>
       <c r="S11">
-        <v>0.001044795614595327</v>
+        <v>0.0004738708809867465</v>
       </c>
       <c r="T11">
-        <v>0.000932697589661471</v>
+        <v>0.0003984444629483876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J12">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>16.56429613706045</v>
+        <v>62.55584678536579</v>
       </c>
       <c r="R12">
-        <v>149.078665233544</v>
+        <v>563.0026210682921</v>
       </c>
       <c r="S12">
-        <v>0.006834673975049384</v>
+        <v>0.008740216254646377</v>
       </c>
       <c r="T12">
-        <v>0.009152054028939824</v>
+        <v>0.0110235432626195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J13">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>1.477751954586667</v>
+        <v>0.6674470223880001</v>
       </c>
       <c r="R13">
-        <v>13.29976759128</v>
+        <v>6.007023201492001</v>
       </c>
       <c r="S13">
-        <v>0.0006097423483630268</v>
+        <v>9.325477335806177E-05</v>
       </c>
       <c r="T13">
-        <v>0.0008164829714369439</v>
+        <v>0.0001176170015257777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H14">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I14">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J14">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>252.6772055547047</v>
+        <v>329.9402154470711</v>
       </c>
       <c r="R14">
-        <v>1516.063233328228</v>
+        <v>1979.641292682426</v>
       </c>
       <c r="S14">
-        <v>0.1042583582546005</v>
+        <v>0.04609878983824478</v>
       </c>
       <c r="T14">
-        <v>0.09307228905606763</v>
+        <v>0.03876120752856251</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H15">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I15">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J15">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>60.41364331087866</v>
+        <v>50.67447181781133</v>
       </c>
       <c r="R15">
-        <v>543.722789797908</v>
+        <v>456.070246360302</v>
       </c>
       <c r="S15">
-        <v>0.02492756421753122</v>
+        <v>0.007080167003370611</v>
       </c>
       <c r="T15">
-        <v>0.03337956065813139</v>
+        <v>0.008929816493583403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H16">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I16">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J16">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>11.392773171344</v>
+        <v>21.38890262221778</v>
       </c>
       <c r="R16">
-        <v>102.534958542096</v>
+        <v>192.50012359996</v>
       </c>
       <c r="S16">
-        <v>0.004700826986762868</v>
+        <v>0.002988427844469522</v>
       </c>
       <c r="T16">
-        <v>0.006294700042841665</v>
+        <v>0.003769135988278743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H17">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I17">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J17">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>27.84670994324667</v>
+        <v>31.28580411286434</v>
       </c>
       <c r="R17">
-        <v>167.08025965948</v>
+        <v>187.714824677186</v>
       </c>
       <c r="S17">
-        <v>0.01148996505284844</v>
+        <v>0.00437120921062983</v>
       </c>
       <c r="T17">
-        <v>0.0102571857695221</v>
+        <v>0.003675440243843892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H18">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I18">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J18">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>182.1630767598249</v>
+        <v>577.0447280439399</v>
       </c>
       <c r="R18">
-        <v>1639.467690838424</v>
+        <v>5193.402552395459</v>
       </c>
       <c r="S18">
-        <v>0.07516318409447639</v>
+        <v>0.08062389002601607</v>
       </c>
       <c r="T18">
-        <v>0.1006481837072306</v>
+        <v>0.1016863786671172</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H19">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I19">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J19">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>16.25132999965334</v>
+        <v>6.156847126362001</v>
       </c>
       <c r="R19">
-        <v>146.26196999688</v>
+        <v>55.41162413725801</v>
       </c>
       <c r="S19">
-        <v>0.006705539510372534</v>
+        <v>0.0008602261514552902</v>
       </c>
       <c r="T19">
-        <v>0.00897913493988961</v>
+        <v>0.001084954870671873</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H20">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I20">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J20">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>42.02710062629651</v>
+        <v>99.42837452699099</v>
       </c>
       <c r="R20">
-        <v>168.108402505186</v>
+        <v>397.713498107964</v>
       </c>
       <c r="S20">
-        <v>0.01734100432161829</v>
+        <v>0.01389199475143501</v>
       </c>
       <c r="T20">
-        <v>0.01032030425034984</v>
+        <v>0.007787196344134027</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H21">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I21">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J21">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>10.048434171391</v>
+        <v>15.270888867038</v>
       </c>
       <c r="R21">
-        <v>60.290605028346</v>
+        <v>91.62533320222799</v>
       </c>
       <c r="S21">
-        <v>0.004146132799904816</v>
+        <v>0.002133627437840196</v>
       </c>
       <c r="T21">
-        <v>0.003701286658238321</v>
+        <v>0.001794016202962171</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H22">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I22">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J22">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>1.894928446092</v>
+        <v>6.445603539906666</v>
       </c>
       <c r="R22">
-        <v>11.369570676552</v>
+        <v>38.67362123944</v>
       </c>
       <c r="S22">
-        <v>0.0007818755489470574</v>
+        <v>0.0009005707975433819</v>
       </c>
       <c r="T22">
-        <v>0.0006979866968532567</v>
+        <v>0.0007572262026883435</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H23">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I23">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J23">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>4.631666233315</v>
+        <v>9.428061518650999</v>
       </c>
       <c r="R23">
-        <v>18.52666493326</v>
+        <v>37.712246074604</v>
       </c>
       <c r="S23">
-        <v>0.001911094102883553</v>
+        <v>0.001317275694754032</v>
       </c>
       <c r="T23">
-        <v>0.001137366223259614</v>
+        <v>0.0007384025590238282</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H24">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I24">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J24">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>30.29868064503134</v>
+        <v>173.8939864030687</v>
       </c>
       <c r="R24">
-        <v>181.792083870188</v>
+        <v>1043.363918418412</v>
       </c>
       <c r="S24">
-        <v>0.01250168448870037</v>
+        <v>0.02429622688603606</v>
       </c>
       <c r="T24">
-        <v>0.01116035598391686</v>
+        <v>0.02042897646109969</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H25">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I25">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J25">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>2.703038763260001</v>
+        <v>1.855382500602</v>
       </c>
       <c r="R25">
-        <v>16.21823257956</v>
+        <v>11.132295003612</v>
       </c>
       <c r="S25">
-        <v>0.001115313837421004</v>
+        <v>0.0002592314727348826</v>
       </c>
       <c r="T25">
-        <v>0.0009956497838877025</v>
+        <v>0.0002179693859181416</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H26">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I26">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J26">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>259.0461378339944</v>
+        <v>967.769060404938</v>
       </c>
       <c r="R26">
-        <v>1554.276827003966</v>
+        <v>5806.614362429628</v>
       </c>
       <c r="S26">
-        <v>0.1068862740644804</v>
+        <v>0.1352153524756356</v>
       </c>
       <c r="T26">
-        <v>0.09541825099107973</v>
+        <v>0.1136930135638328</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H27">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I27">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J27">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>61.93641780154731</v>
+        <v>148.636582270484</v>
       </c>
       <c r="R27">
-        <v>557.4277602139259</v>
+        <v>1337.729240434356</v>
       </c>
       <c r="S27">
-        <v>0.02555588353126025</v>
+        <v>0.02076729736954789</v>
       </c>
       <c r="T27">
-        <v>0.03422091934292994</v>
+        <v>0.02619262433915116</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H28">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I28">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J28">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>11.679937186168</v>
+        <v>62.73717850898667</v>
       </c>
       <c r="R28">
-        <v>105.119434675512</v>
+        <v>564.63460658088</v>
       </c>
       <c r="S28">
-        <v>0.004819315113420846</v>
+        <v>0.008765551671873036</v>
       </c>
       <c r="T28">
-        <v>0.006453363022366427</v>
+        <v>0.0110554973996497</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H29">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I29">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J29">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>28.54860867384333</v>
+        <v>91.76642262081801</v>
       </c>
       <c r="R29">
-        <v>171.29165204306</v>
+        <v>550.5985357249081</v>
       </c>
       <c r="S29">
-        <v>0.01177957886724988</v>
+        <v>0.01282147744515633</v>
       </c>
       <c r="T29">
-        <v>0.01051572639014819</v>
+        <v>0.01078067233040863</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H30">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I30">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J30">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>186.7546436846031</v>
+        <v>1692.567344402103</v>
       </c>
       <c r="R30">
-        <v>1680.791793161428</v>
+        <v>15233.10609961893</v>
       </c>
       <c r="S30">
-        <v>0.07705773262861339</v>
+        <v>0.2364831646574027</v>
       </c>
       <c r="T30">
-        <v>0.1031851021627661</v>
+        <v>0.2982629171327663</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H31">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I31">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J31">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>16.66095784870667</v>
+        <v>18.059047911036</v>
       </c>
       <c r="R31">
-        <v>149.94862063836</v>
+        <v>162.531431199324</v>
       </c>
       <c r="S31">
-        <v>0.006874558029252811</v>
+        <v>0.002523185157049131</v>
       </c>
       <c r="T31">
-        <v>0.009205461260988564</v>
+        <v>0.00318235154920155</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H32">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I32">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J32">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>242.022050376457</v>
+        <v>288.6004776776355</v>
       </c>
       <c r="R32">
-        <v>1452.132302258742</v>
+        <v>1731.602866065813</v>
       </c>
       <c r="S32">
-        <v>0.09986188337910329</v>
+        <v>0.04032285894476728</v>
       </c>
       <c r="T32">
-        <v>0.08914751997960883</v>
+        <v>0.03390463630796665</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H33">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I33">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J33">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>57.86605797191799</v>
+        <v>44.32523253603899</v>
       </c>
       <c r="R33">
-        <v>520.7945217472619</v>
+        <v>398.927092824351</v>
       </c>
       <c r="S33">
-        <v>0.02387639276591397</v>
+        <v>0.006193060086480981</v>
       </c>
       <c r="T33">
-        <v>0.03197197663086099</v>
+        <v>0.007810958425088452</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H34">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I34">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J34">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>10.912350864216</v>
+        <v>18.70898794622</v>
       </c>
       <c r="R34">
-        <v>98.211157777944</v>
+        <v>168.38089151598</v>
       </c>
       <c r="S34">
-        <v>0.004502597625708735</v>
+        <v>0.002613993878407364</v>
       </c>
       <c r="T34">
-        <v>0.006029258585193125</v>
+        <v>0.003296883482891805</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H35">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I35">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J35">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>26.67244091887</v>
+        <v>27.3658608098655</v>
       </c>
       <c r="R35">
-        <v>160.03464551322</v>
+        <v>164.195164859193</v>
       </c>
       <c r="S35">
-        <v>0.0110054442573854</v>
+        <v>0.003823520162606622</v>
       </c>
       <c r="T35">
-        <v>0.00982465009292063</v>
+        <v>0.003214927312245497</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H36">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I36">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J36">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>174.4814346965373</v>
+        <v>504.744121383281</v>
       </c>
       <c r="R36">
-        <v>1570.332912268836</v>
+        <v>4542.69709244953</v>
       </c>
       <c r="S36">
-        <v>0.07199362478080711</v>
+        <v>0.07052214942094578</v>
       </c>
       <c r="T36">
-        <v>0.09640394642648728</v>
+        <v>0.08894562130558697</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H37">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I37">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J37">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>15.56602701548</v>
+        <v>5.385427233381</v>
       </c>
       <c r="R37">
-        <v>140.09424313932</v>
+        <v>48.46884510042901</v>
       </c>
       <c r="S37">
-        <v>0.006422773346800166</v>
+        <v>0.0007524444326509112</v>
       </c>
       <c r="T37">
-        <v>0.008600493439794993</v>
+        <v>0.0009490158497663049</v>
       </c>
     </row>
   </sheetData>
